--- a/data/trans_orig/P5702-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P5702-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>252085</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>229659</v>
+        <v>230431</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>276250</v>
+        <v>277684</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4315473948371749</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.393157260745903</v>
+        <v>0.394478279523209</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4729158236081042</v>
+        <v>0.475371253500636</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>408</v>
@@ -765,19 +765,19 @@
         <v>420969</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>390992</v>
+        <v>392027</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>449433</v>
+        <v>453244</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.456417318851208</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4239159513804956</v>
+        <v>0.4250381972900614</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4872787816518643</v>
+        <v>0.4914098724991546</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>654</v>
@@ -786,19 +786,19 @@
         <v>673053</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>633444</v>
+        <v>634054</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>712498</v>
+        <v>710038</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4467739083458608</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4204811078524177</v>
+        <v>0.4208859455911069</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4729575933496075</v>
+        <v>0.471324125894167</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>140988</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>120501</v>
+        <v>120997</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>161551</v>
+        <v>161975</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2413589500582582</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.206287767036063</v>
+        <v>0.2071361822289095</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2765622385672718</v>
+        <v>0.2772871128486927</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>151</v>
@@ -836,19 +836,19 @@
         <v>154323</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>132753</v>
+        <v>133169</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>178623</v>
+        <v>178412</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1673185519070059</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1439317275235028</v>
+        <v>0.1443826834686997</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1936646027182003</v>
+        <v>0.1934353398117481</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>294</v>
@@ -857,19 +857,19 @@
         <v>295311</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>265106</v>
+        <v>266627</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>327886</v>
+        <v>329168</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.196028006465411</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.175977762347255</v>
+        <v>0.1769876387751309</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2176511809812016</v>
+        <v>0.2185020154704184</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>104212</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>86755</v>
+        <v>88633</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>123532</v>
+        <v>125574</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.178402493560294</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1485166444835</v>
+        <v>0.1517321994797614</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2114765957419431</v>
+        <v>0.2149720399894423</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>145</v>
@@ -907,19 +907,19 @@
         <v>153971</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>132305</v>
+        <v>131839</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>178978</v>
+        <v>179222</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.166936636257991</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1434456819620274</v>
+        <v>0.1429408926296764</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1940486861394276</v>
+        <v>0.1943134171275359</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>247</v>
@@ -928,19 +928,19 @@
         <v>258183</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>227615</v>
+        <v>228309</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>286268</v>
+        <v>285808</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1713825673633474</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1510914121287462</v>
+        <v>0.1515518516151119</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1900252365357815</v>
+        <v>0.1897200910232743</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>62062</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47225</v>
+        <v>48922</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78159</v>
+        <v>79305</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1062449938283016</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08084561818536316</v>
+        <v>0.08375011870972374</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1338024108132071</v>
+        <v>0.1357637167192424</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>150</v>
@@ -978,19 +978,19 @@
         <v>159935</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>137076</v>
+        <v>137712</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>185345</v>
+        <v>183200</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1734024900205955</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1486182904017464</v>
+        <v>0.1493084052653427</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.20095242406866</v>
+        <v>0.1986267889414305</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>212</v>
@@ -999,19 +999,19 @@
         <v>221997</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>196403</v>
+        <v>195669</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>253948</v>
+        <v>253150</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1473619076718859</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1303727749201544</v>
+        <v>0.129885280094796</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1685713350629523</v>
+        <v>0.1680411141530701</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>24795</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14999</v>
+        <v>14847</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>37977</v>
+        <v>36476</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04244616771597137</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02567692465609483</v>
+        <v>0.02541620158881795</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06501366416688392</v>
+        <v>0.06244357610476449</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -1049,19 +1049,19 @@
         <v>33135</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>23126</v>
+        <v>23499</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47438</v>
+        <v>46063</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03592500296319957</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02507315854610793</v>
+        <v>0.02547757456695319</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05143283111745252</v>
+        <v>0.04994171533213645</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>52</v>
@@ -1070,19 +1070,19 @@
         <v>57929</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>43169</v>
+        <v>44247</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>75233</v>
+        <v>76388</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03845361015349476</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02865594810851566</v>
+        <v>0.02937107326606667</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04993990338170184</v>
+        <v>0.05070622683813715</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>537720</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>506782</v>
+        <v>506727</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>570536</v>
+        <v>571622</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4988614160804876</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4701591260335181</v>
+        <v>0.4701081506974744</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5293060779336607</v>
+        <v>0.5303133422090286</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>439</v>
@@ -1195,19 +1195,19 @@
         <v>446534</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>414725</v>
+        <v>413372</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>477865</v>
+        <v>477813</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4222393851447651</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3921611014798481</v>
+        <v>0.3908811815933874</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4518655067411186</v>
+        <v>0.4518167345833706</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>962</v>
@@ -1216,19 +1216,19 @@
         <v>984254</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>937377</v>
+        <v>936782</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1032465</v>
+        <v>1029582</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4609156007900348</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4389635181638925</v>
+        <v>0.4386849894016617</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4834921752543621</v>
+        <v>0.4821423376920985</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>307482</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>279484</v>
+        <v>277617</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>338173</v>
+        <v>341766</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2852622559615635</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2592869842369211</v>
+        <v>0.2575546006363082</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3137352173812801</v>
+        <v>0.3170680105121116</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>282</v>
@@ -1266,19 +1266,19 @@
         <v>288116</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>261505</v>
+        <v>257480</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>318866</v>
+        <v>316583</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2724399654928486</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2472768828115139</v>
+        <v>0.2434714445585942</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3015171765330618</v>
+        <v>0.2993588107663758</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>585</v>
@@ -1287,19 +1287,19 @@
         <v>595598</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>552998</v>
+        <v>554790</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>639254</v>
+        <v>638640</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2789122250398492</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2589631157994878</v>
+        <v>0.2598020918551666</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2993557053498799</v>
+        <v>0.29906808431251</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>171085</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>150271</v>
+        <v>146253</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>197651</v>
+        <v>194175</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1587217200046107</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1394114512887351</v>
+        <v>0.1356843322209436</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1833679232428054</v>
+        <v>0.1801428123023502</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>163</v>
@@ -1337,19 +1337,19 @@
         <v>169115</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>145637</v>
+        <v>148220</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>193594</v>
+        <v>192694</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1599137039591846</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1377131326779744</v>
+        <v>0.140156131511681</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1830611027285732</v>
+        <v>0.1822101221837249</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>334</v>
@@ -1358,19 +1358,19 @@
         <v>340200</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>306335</v>
+        <v>307270</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>373016</v>
+        <v>373611</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1593120306818021</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1434534013148977</v>
+        <v>0.1438911651042247</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1746792392078177</v>
+        <v>0.1749579915106352</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>48001</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35645</v>
+        <v>35371</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63583</v>
+        <v>63727</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04453247707610317</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03306903177960104</v>
+        <v>0.03281505652454023</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05898838121551012</v>
+        <v>0.05912218724189918</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>122</v>
@@ -1408,19 +1408,19 @@
         <v>129692</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>108438</v>
+        <v>109767</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>152986</v>
+        <v>153391</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1226353195137578</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1025379371463752</v>
+        <v>0.1037944424175103</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1446625485383552</v>
+        <v>0.1450452027146295</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>168</v>
@@ -1429,19 +1429,19 @@
         <v>177693</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>152376</v>
+        <v>152657</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>205428</v>
+        <v>206035</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0832116401915364</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07135620705029404</v>
+        <v>0.07148752252079731</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09619985365881596</v>
+        <v>0.0964841113615072</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>13605</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7506</v>
+        <v>7313</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24118</v>
+        <v>24493</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01262213087723494</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006963205310295192</v>
+        <v>0.006784786158646257</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02237523904207992</v>
+        <v>0.02272345377346747</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1479,19 +1479,19 @@
         <v>24082</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15288</v>
+        <v>14651</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>36092</v>
+        <v>35462</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02277162588944401</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0144563606383022</v>
+        <v>0.01385395315542909</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03412789344830421</v>
+        <v>0.03353220279272584</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -1500,19 +1500,19 @@
         <v>37687</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26155</v>
+        <v>26446</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>52727</v>
+        <v>52574</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01764850329677757</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01224823469260393</v>
+        <v>0.01238458388879703</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02469148186380422</v>
+        <v>0.0246198358118387</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>563412</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>531320</v>
+        <v>528482</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>599007</v>
+        <v>598280</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5023313681659628</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4737188695589859</v>
+        <v>0.4711884273365468</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5340677281227351</v>
+        <v>0.5334194457811239</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>416</v>
@@ -1625,19 +1625,19 @@
         <v>415414</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>383031</v>
+        <v>384731</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>448357</v>
+        <v>448882</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4179462981260856</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3853659742739631</v>
+        <v>0.3870763383783786</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4510901997532855</v>
+        <v>0.4516184483319924</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>969</v>
@@ -1646,19 +1646,19 @@
         <v>978825</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>932235</v>
+        <v>934910</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1024721</v>
+        <v>1022794</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4626847976535974</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4406620090651224</v>
+        <v>0.4419264009659798</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.484379373611159</v>
+        <v>0.4834684604965349</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>350406</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>319181</v>
+        <v>318088</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>382817</v>
+        <v>381851</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3124181892687787</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2845783289520704</v>
+        <v>0.2836034581200693</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3413152920050917</v>
+        <v>0.3404536702748603</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>319</v>
@@ -1696,19 +1696,19 @@
         <v>322718</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>295742</v>
+        <v>294917</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>351855</v>
+        <v>352006</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3246852303467482</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2975448801789257</v>
+        <v>0.2967147253037022</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3539999002278854</v>
+        <v>0.3541523622758184</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>665</v>
@@ -1717,19 +1717,19 @@
         <v>673124</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>627836</v>
+        <v>637559</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>717342</v>
+        <v>715865</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3181816034467367</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2967740744760874</v>
+        <v>0.3013701781026571</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3390832829203215</v>
+        <v>0.3383850574431853</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>159433</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>136205</v>
+        <v>136237</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>181871</v>
+        <v>182827</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.142148263017459</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1214391031584681</v>
+        <v>0.1214676879153039</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1621538862803699</v>
+        <v>0.1630063253655031</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>175</v>
@@ -1767,19 +1767,19 @@
         <v>176715</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>154519</v>
+        <v>152866</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>204870</v>
+        <v>201431</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1777925940838449</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1554614309070964</v>
+        <v>0.1537977346136812</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2061194316374637</v>
+        <v>0.2026586405048773</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>333</v>
@@ -1788,19 +1788,19 @@
         <v>336148</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>304437</v>
+        <v>305214</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>368513</v>
+        <v>372208</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1588950108049735</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1439056481822072</v>
+        <v>0.1442727795174714</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1741938172361329</v>
+        <v>0.1759403183133838</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>38979</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27544</v>
+        <v>28116</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>52929</v>
+        <v>53219</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03475310403536447</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.024557726564457</v>
+        <v>0.02506756795059847</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04719112552611363</v>
+        <v>0.04744957134848223</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>61</v>
@@ -1838,19 +1838,19 @@
         <v>67417</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52290</v>
+        <v>52433</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>87467</v>
+        <v>85316</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06782797431637282</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05260852255568134</v>
+        <v>0.05275300383078071</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08799983167695932</v>
+        <v>0.08583665835241452</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>98</v>
@@ -1859,19 +1859,19 @@
         <v>106396</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>88005</v>
+        <v>87161</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>128918</v>
+        <v>128656</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05029264410049284</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04159932922833059</v>
+        <v>0.04120053663868873</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06093863851713364</v>
+        <v>0.06081478945396972</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>9364</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4655</v>
+        <v>4593</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18774</v>
+        <v>18475</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008349075512434951</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004150424796717357</v>
+        <v>0.004094818494461773</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01673896316090123</v>
+        <v>0.0164718690720244</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -1909,19 +1909,19 @@
         <v>11677</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5976</v>
+        <v>6524</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21007</v>
+        <v>20705</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01174790312694839</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006012042837416406</v>
+        <v>0.006563831599920879</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02113541054598052</v>
+        <v>0.02083125805671527</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>20</v>
@@ -1930,19 +1930,19 @@
         <v>21041</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13160</v>
+        <v>13273</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>32623</v>
+        <v>32099</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009945943994199595</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006220593108575331</v>
+        <v>0.006274098159032346</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01542048066260401</v>
+        <v>0.01517306247075</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>239195</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>218096</v>
+        <v>216884</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>260615</v>
+        <v>259267</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5348715837411424</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.487691921125766</v>
+        <v>0.4849818556196042</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5827708080729809</v>
+        <v>0.579755286385737</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>184</v>
@@ -2055,19 +2055,19 @@
         <v>182368</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>165125</v>
+        <v>164690</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>199507</v>
+        <v>201575</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5345547875620502</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4840141545097145</v>
+        <v>0.4827381354622012</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5847939354013675</v>
+        <v>0.5908564131119478</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>417</v>
@@ -2076,19 +2076,19 @@
         <v>421562</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>393835</v>
+        <v>392475</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>448595</v>
+        <v>449172</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5347344916768204</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.499564175314715</v>
+        <v>0.4978380394438064</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5690240915558841</v>
+        <v>0.5697568335617036</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>118909</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>101568</v>
+        <v>101728</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>138586</v>
+        <v>138989</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2658956662813435</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2271203594123176</v>
+        <v>0.2274766707001167</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3098982352161384</v>
+        <v>0.3107992992636169</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>93</v>
@@ -2126,19 +2126,19 @@
         <v>94754</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>79657</v>
+        <v>78792</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>111645</v>
+        <v>110722</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2777432940550036</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2334898060274724</v>
+        <v>0.2309537807932873</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3272539689709663</v>
+        <v>0.3245481370923164</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>211</v>
@@ -2147,19 +2147,19 @@
         <v>213663</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>188518</v>
+        <v>188728</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>239782</v>
+        <v>239627</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2710226717694288</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2391269444917483</v>
+        <v>0.2393939170420247</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3041536601147261</v>
+        <v>0.3039565696455905</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>59870</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>46784</v>
+        <v>46266</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>76292</v>
+        <v>76198</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1338780611359611</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.104615199146613</v>
+        <v>0.1034560987656398</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1706001237104259</v>
+        <v>0.1703896226079265</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>45</v>
@@ -2197,19 +2197,19 @@
         <v>46602</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>35308</v>
+        <v>34564</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>60078</v>
+        <v>60073</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1365994907500791</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1034938287845932</v>
+        <v>0.1013129888922635</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1761010703400966</v>
+        <v>0.1760854005509616</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>102</v>
@@ -2218,19 +2218,19 @@
         <v>106472</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>89572</v>
+        <v>88178</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>126404</v>
+        <v>127944</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1350557470688397</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1136187787920117</v>
+        <v>0.1118504945340528</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1603385635430902</v>
+        <v>0.1622912902268984</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>20216</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12771</v>
+        <v>12569</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31637</v>
+        <v>30245</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0452054682198746</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0285580368261568</v>
+        <v>0.02810612165068217</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07074368657591401</v>
+        <v>0.06763114783277323</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -2268,19 +2268,19 @@
         <v>13261</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7128</v>
+        <v>7762</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21597</v>
+        <v>21951</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03887163974603627</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02089234491975098</v>
+        <v>0.02275059254910371</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06330370984520971</v>
+        <v>0.06434347219667369</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>33</v>
@@ -2289,19 +2289,19 @@
         <v>33477</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>23155</v>
+        <v>23391</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>46054</v>
+        <v>46940</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04246453358162104</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0293706731662989</v>
+        <v>0.02967016598978985</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05841809321771221</v>
+        <v>0.05954131822884758</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>9011</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3991</v>
+        <v>4309</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17660</v>
+        <v>18033</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02014922062167839</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008925058356263411</v>
+        <v>0.009635630163971372</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03949039287549588</v>
+        <v>0.04032506982951164</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2339,19 +2339,19 @@
         <v>4173</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>880</v>
+        <v>1537</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9589</v>
+        <v>10682</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01223078788683079</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002579574777662928</v>
+        <v>0.004505233591999688</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02810605399272174</v>
+        <v>0.03130997005989487</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -2360,19 +2360,19 @@
         <v>13183</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7125</v>
+        <v>6657</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>22459</v>
+        <v>22219</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01672255590329015</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009037276398408433</v>
+        <v>0.008443754731856244</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02848854714824202</v>
+        <v>0.02818407086135314</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>1592411</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1536789</v>
+        <v>1530413</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1645383</v>
+        <v>1649135</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4928798880476143</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4756640949212959</v>
+        <v>0.4736903520556605</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5092759085331215</v>
+        <v>0.510437126956089</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1447</v>
@@ -2485,19 +2485,19 @@
         <v>1465284</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1402509</v>
+        <v>1412874</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1522191</v>
+        <v>1524039</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.442020470260751</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4230834602410829</v>
+        <v>0.4262104484603039</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.459186989186489</v>
+        <v>0.4597446532516418</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3002</v>
@@ -2506,19 +2506,19 @@
         <v>3057695</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2974385</v>
+        <v>2972654</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3133588</v>
+        <v>3135748</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.467123306311382</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4543960844925609</v>
+        <v>0.4541315673000795</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4787175550854316</v>
+        <v>0.4790475088923455</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>917785</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>866903</v>
+        <v>870101</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>975498</v>
+        <v>975159</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2840710675338498</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2683223025123098</v>
+        <v>0.2693118998256677</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.301934409022996</v>
+        <v>0.3018293793900247</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>845</v>
@@ -2556,19 +2556,19 @@
         <v>859911</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>808488</v>
+        <v>807905</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>911503</v>
+        <v>910099</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2594024237157894</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2438900865182224</v>
+        <v>0.2437140912159481</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.27496591696925</v>
+        <v>0.2745422966926888</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1755</v>
@@ -2577,19 +2577,19 @@
         <v>1777696</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1708617</v>
+        <v>1700780</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1844872</v>
+        <v>1850014</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2715782005591518</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2610250364482293</v>
+        <v>0.2598276956585585</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2818405794887491</v>
+        <v>0.2826262713392965</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>494600</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>456336</v>
+        <v>449516</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>538384</v>
+        <v>533568</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1530877435486341</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1412442162872254</v>
+        <v>0.1391334705664138</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1666395701979136</v>
+        <v>0.165148874479437</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>528</v>
@@ -2627,19 +2627,19 @@
         <v>546403</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>507918</v>
+        <v>500882</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>594605</v>
+        <v>592070</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1648290412082118</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1532193904523915</v>
+        <v>0.1510969093999609</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1793696232825223</v>
+        <v>0.1786050637961574</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1016</v>
@@ -2648,19 +2648,19 @@
         <v>1041003</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>982243</v>
+        <v>984903</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1101530</v>
+        <v>1100235</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1590338535518134</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1500570855966007</v>
+        <v>0.1504634557730989</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1682805293348304</v>
+        <v>0.168082611528674</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>169258</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>144517</v>
+        <v>145239</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>196739</v>
+        <v>199809</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05238844999486256</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0447306232834199</v>
+        <v>0.04495402836929095</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06089413868594524</v>
+        <v>0.06184438715289969</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>346</v>
@@ -2698,19 +2698,19 @@
         <v>370305</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>334518</v>
+        <v>335284</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>409669</v>
+        <v>407252</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1117068267562397</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1009112039214773</v>
+        <v>0.1011424518643004</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1235815135218837</v>
+        <v>0.1228523921624398</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>511</v>
@@ -2719,19 +2719,19 @@
         <v>539563</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>498031</v>
+        <v>496298</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>590730</v>
+        <v>587608</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08242887684201501</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07608401352616675</v>
+        <v>0.07581939158294113</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09024566123041423</v>
+        <v>0.0897687224951005</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>56775</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>42289</v>
+        <v>41493</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>76491</v>
+        <v>73942</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01757285087503922</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01308929201939922</v>
+        <v>0.01284289233733219</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02367529714482184</v>
+        <v>0.02288638613013551</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>68</v>
@@ -2769,19 +2769,19 @@
         <v>73066</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>57059</v>
+        <v>56767</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>92107</v>
+        <v>91463</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02204123805900815</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01721263011434128</v>
+        <v>0.01712453110852956</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02778514862626386</v>
+        <v>0.02759101946416348</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>118</v>
@@ -2790,19 +2790,19 @@
         <v>129841</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>107758</v>
+        <v>107727</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>154704</v>
+        <v>157892</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01983576273563775</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0164621515074356</v>
+        <v>0.01645745692883093</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02363415427515697</v>
+        <v>0.02412113041306361</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>494645</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>462982</v>
+        <v>460204</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>527100</v>
+        <v>527765</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.475693795727526</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.445243474471257</v>
+        <v>0.442571616556191</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5069053604306242</v>
+        <v>0.507544080703851</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>421</v>
@@ -3155,19 +3155,19 @@
         <v>455275</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>421884</v>
+        <v>421743</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>491611</v>
+        <v>488905</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4069212433318294</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3770766143056316</v>
+        <v>0.376950474289592</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4393981173863992</v>
+        <v>0.4369789176755841</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>884</v>
@@ -3176,19 +3176,19 @@
         <v>949920</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>902117</v>
+        <v>903326</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>997425</v>
+        <v>994346</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4400492727315696</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4179042478010671</v>
+        <v>0.4184645066854231</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4620555557333312</v>
+        <v>0.4606296502698523</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>254234</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>226451</v>
+        <v>227788</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>283793</v>
+        <v>284183</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2444929874988435</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.217774449927385</v>
+        <v>0.2190607206538483</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2729194303848309</v>
+        <v>0.2732952318436728</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>263</v>
@@ -3226,19 +3226,19 @@
         <v>282740</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>254447</v>
+        <v>251222</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>315725</v>
+        <v>319140</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2527106554008026</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2274224872815298</v>
+        <v>0.2245400937715348</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2821924841793927</v>
+        <v>0.2852449905879902</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>501</v>
@@ -3247,19 +3247,19 @@
         <v>536973</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>491252</v>
+        <v>489301</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>576820</v>
+        <v>576712</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2487521700113547</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2275720351874287</v>
+        <v>0.2266681695132212</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2672111694975061</v>
+        <v>0.2671610517526599</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>158628</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>136833</v>
+        <v>134983</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>182984</v>
+        <v>183492</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1525504733310158</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1315908724330242</v>
+        <v>0.1298108944215464</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1759731191517391</v>
+        <v>0.1764621974042545</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>165</v>
@@ -3297,19 +3297,19 @@
         <v>182366</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>157579</v>
+        <v>157363</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>208125</v>
+        <v>209945</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1629971366363792</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1408430855837369</v>
+        <v>0.1406494087698692</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1860203855954454</v>
+        <v>0.1876474206371755</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>315</v>
@@ -3318,19 +3318,19 @@
         <v>340994</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>307877</v>
+        <v>307159</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>375044</v>
+        <v>379789</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.157964934732369</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1426235141975519</v>
+        <v>0.1422909575434783</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1737384664186654</v>
+        <v>0.1759368886028982</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>98009</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>77956</v>
+        <v>79610</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>117056</v>
+        <v>119235</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09425348273629973</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07496890013564168</v>
+        <v>0.07655996491033613</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1125712181197337</v>
+        <v>0.1146664466581043</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>127</v>
@@ -3368,19 +3368,19 @@
         <v>138590</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>117633</v>
+        <v>118309</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>164715</v>
+        <v>164691</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1238703594115297</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1051392559719357</v>
+        <v>0.10574345681743</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1472209683105683</v>
+        <v>0.1471994342611967</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>218</v>
@@ -3389,19 +3389,19 @@
         <v>236598</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>207853</v>
+        <v>205943</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>267152</v>
+        <v>268269</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1096037846364616</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09628780440088877</v>
+        <v>0.09540292412039066</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.123757911163429</v>
+        <v>0.1242751974664032</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>34324</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>22372</v>
+        <v>23955</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>47174</v>
+        <v>47753</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03300926070631491</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02151511434476455</v>
+        <v>0.02303684937291482</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04536660632308952</v>
+        <v>0.04592334905556918</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>54</v>
@@ -3439,19 +3439,19 @@
         <v>59858</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44750</v>
+        <v>45149</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>76350</v>
+        <v>76450</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05350060521945909</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03999747625782364</v>
+        <v>0.04035343361163439</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06824067529382059</v>
+        <v>0.06833080623044337</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>86</v>
@@ -3460,19 +3460,19 @@
         <v>94182</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>75110</v>
+        <v>74358</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>114934</v>
+        <v>114251</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04362983788824509</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03479446514714129</v>
+        <v>0.03444603911424986</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05324295336539105</v>
+        <v>0.05292671788068362</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>511513</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>478835</v>
+        <v>480046</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>545329</v>
+        <v>540719</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5244788794904455</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4909718358420724</v>
+        <v>0.4922141598008433</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.559152263997421</v>
+        <v>0.5544244351570773</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>425</v>
@@ -3585,19 +3585,19 @@
         <v>452705</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>420434</v>
+        <v>419124</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>488132</v>
+        <v>487140</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4137083649449311</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3842169145723072</v>
+        <v>0.3830199541206449</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4460829407671198</v>
+        <v>0.4451771601917304</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>919</v>
@@ -3606,19 +3606,19 @@
         <v>964219</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>918513</v>
+        <v>918770</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1009969</v>
+        <v>1009156</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4659093684685158</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.44382435171493</v>
+        <v>0.4439485673865182</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.488016051825533</v>
+        <v>0.487623232220104</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>264878</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>236790</v>
+        <v>236040</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>294906</v>
+        <v>292181</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.27159250986771</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2427924993031707</v>
+        <v>0.2420231396768479</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3023811727160352</v>
+        <v>0.2995873132480245</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>303</v>
@@ -3656,19 +3656,19 @@
         <v>330019</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>299540</v>
+        <v>297865</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>360622</v>
+        <v>362561</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3015905038359732</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2737369782856778</v>
+        <v>0.272206605432897</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3295572893906625</v>
+        <v>0.3313292811204485</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>550</v>
@@ -3677,19 +3677,19 @@
         <v>594898</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>555317</v>
+        <v>550394</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>641658</v>
+        <v>639015</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2874538412478947</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2683287326455256</v>
+        <v>0.2659499869838391</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3100483114940378</v>
+        <v>0.3087715192092906</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>119177</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>99982</v>
+        <v>99211</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>143200</v>
+        <v>141391</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1221979306224136</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1025164405853854</v>
+        <v>0.101725802269327</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.146829666342679</v>
+        <v>0.1449748842190153</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>148</v>
@@ -3727,19 +3727,19 @@
         <v>157822</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>135588</v>
+        <v>134471</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>184154</v>
+        <v>181330</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1442269881013262</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1239080848331403</v>
+        <v>0.1228876524630826</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1682904847345573</v>
+        <v>0.1657096825799668</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>258</v>
@@ -3748,19 +3748,19 @@
         <v>276999</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>249050</v>
+        <v>245177</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>313668</v>
+        <v>307032</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1338457155054905</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1203405431158296</v>
+        <v>0.1184691356495619</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1515638954127311</v>
+        <v>0.1483575973977149</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>51934</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37278</v>
+        <v>37642</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67101</v>
+        <v>68515</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05325015984194403</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03822304299676455</v>
+        <v>0.03859634390337338</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06880208491568084</v>
+        <v>0.07025132544041467</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>92</v>
@@ -3798,19 +3798,19 @@
         <v>96825</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>79325</v>
+        <v>78901</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>116715</v>
+        <v>119452</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08848401033799615</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07249166042161331</v>
+        <v>0.07210453489981149</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1066604817156388</v>
+        <v>0.10916243068452</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>140</v>
@@ -3819,19 +3819,19 @@
         <v>148758</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>125688</v>
+        <v>127759</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>173342</v>
+        <v>174263</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07187993152297763</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06073226805577664</v>
+        <v>0.0617332150252944</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08375869580482712</v>
+        <v>0.08420348600660466</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>27776</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17333</v>
+        <v>16844</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>41781</v>
+        <v>41713</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02848052017748693</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01777206428590882</v>
+        <v>0.01727090251536609</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04284054069081299</v>
+        <v>0.04277009339476062</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -3869,19 +3869,19 @@
         <v>56891</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>42609</v>
+        <v>42181</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73380</v>
+        <v>73736</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05199013277977339</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03893895287076054</v>
+        <v>0.03854742686825664</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06705847065826764</v>
+        <v>0.06738443681831224</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>75</v>
@@ -3890,19 +3890,19 @@
         <v>84667</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>66562</v>
+        <v>68913</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>107209</v>
+        <v>107568</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04091114325512137</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03216282068384963</v>
+        <v>0.03329872149299905</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05180342536471561</v>
+        <v>0.05197668690949547</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>470325</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>439186</v>
+        <v>438783</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>499463</v>
+        <v>499516</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5313710735396489</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4961906347943851</v>
+        <v>0.4957351343004029</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5642912672033178</v>
+        <v>0.5643519197200024</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>369</v>
@@ -4015,19 +4015,19 @@
         <v>390048</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>358488</v>
+        <v>359353</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>419120</v>
+        <v>419801</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4453642724944971</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4093286939705301</v>
+        <v>0.4103160972575643</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4785594838111638</v>
+        <v>0.4793365922153843</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>811</v>
@@ -4036,19 +4036,19 @@
         <v>860373</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>816918</v>
+        <v>816551</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>899853</v>
+        <v>905873</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4885952613151828</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4639180116619558</v>
+        <v>0.463709377054711</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5110156011182196</v>
+        <v>0.5144344734571545</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>264992</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>237548</v>
+        <v>236610</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>294963</v>
+        <v>296372</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2993866763870711</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2683807666563418</v>
+        <v>0.2673216333194957</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3332486136071632</v>
+        <v>0.3348404098123617</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>273</v>
@@ -4086,19 +4086,19 @@
         <v>292970</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>264858</v>
+        <v>265350</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>324532</v>
+        <v>319565</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3345190207620207</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3024192249665569</v>
+        <v>0.3029812622406479</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3705563926320011</v>
+        <v>0.3648853726577788</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>522</v>
@@ -4107,19 +4107,19 @@
         <v>557962</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>521514</v>
+        <v>518005</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>600365</v>
+        <v>602385</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3168598825489788</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2961616288939952</v>
+        <v>0.2941690174635562</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3409399979233113</v>
+        <v>0.3420869713983568</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>106185</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>86528</v>
+        <v>87820</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>129242</v>
+        <v>126630</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1199670211970273</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09775870599066645</v>
+        <v>0.09921845084179724</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1460174412261437</v>
+        <v>0.1430666548135651</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>97</v>
@@ -4157,19 +4157,19 @@
         <v>106321</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>85747</v>
+        <v>87881</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>128915</v>
+        <v>127632</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1213991650844482</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09790788259605974</v>
+        <v>0.1003440653158774</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1471977042602523</v>
+        <v>0.145732517022127</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>195</v>
@@ -4178,19 +4178,19 @@
         <v>212506</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>185954</v>
+        <v>186108</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>240441</v>
+        <v>243231</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1206793034498526</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1056011239024971</v>
+        <v>0.1056886827533501</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1365437408875223</v>
+        <v>0.1381280030644941</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>31277</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21618</v>
+        <v>21679</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43609</v>
+        <v>44525</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03533678403806136</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02442401673940645</v>
+        <v>0.0244923281847661</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04926948993282376</v>
+        <v>0.05030468697515823</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>40</v>
@@ -4228,19 +4228,19 @@
         <v>43710</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31297</v>
+        <v>32129</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57400</v>
+        <v>58574</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04990941586134657</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0357350322474815</v>
+        <v>0.03668538727473519</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06554072387050193</v>
+        <v>0.06688112126023753</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>71</v>
@@ -4249,19 +4249,19 @@
         <v>74988</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>59433</v>
+        <v>58813</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>93925</v>
+        <v>94726</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04258453834253638</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03375130394531069</v>
+        <v>0.03339898715218664</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05333873605986296</v>
+        <v>0.05379375159285885</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>12337</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6025</v>
+        <v>5969</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23618</v>
+        <v>23824</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01393844483819146</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006807290271898609</v>
+        <v>0.006743446600931434</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02668313736616106</v>
+        <v>0.02691597293744224</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>42</v>
@@ -4299,19 +4299,19 @@
         <v>42746</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>31053</v>
+        <v>32082</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>56086</v>
+        <v>58005</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0488081257976874</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03545641781201179</v>
+        <v>0.03663165372924206</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06403955457636605</v>
+        <v>0.0662312122201509</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>52</v>
@@ -4320,19 +4320,19 @@
         <v>55083</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>41455</v>
+        <v>41982</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>71062</v>
+        <v>70554</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0312810143434494</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02354184235811055</v>
+        <v>0.02384107957757634</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04035501941060646</v>
+        <v>0.0400667835525461</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>301217</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>276921</v>
+        <v>276751</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>325791</v>
+        <v>323543</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6027720272325527</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.554152764398384</v>
+        <v>0.5538131084072192</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6519479693332635</v>
+        <v>0.6474503867446593</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>236</v>
@@ -4445,19 +4445,19 @@
         <v>256840</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>235801</v>
+        <v>235710</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>279352</v>
+        <v>280002</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5686122929661761</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5220358313708062</v>
+        <v>0.5218334403571707</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6184511497903233</v>
+        <v>0.619890514504566</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>520</v>
@@ -4466,19 +4466,19 @@
         <v>558057</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>525640</v>
+        <v>525337</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>589623</v>
+        <v>590626</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5865542766671085</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5524823708119304</v>
+        <v>0.5521640066899839</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6197331258430072</v>
+        <v>0.620786823309955</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>105822</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>87092</v>
+        <v>87102</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>128371</v>
+        <v>126257</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2117635217056563</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1742810606900354</v>
+        <v>0.1743012692650542</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2568872151116151</v>
+        <v>0.2526563379621474</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>87</v>
@@ -4516,19 +4516,19 @@
         <v>96010</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>78492</v>
+        <v>77938</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>115103</v>
+        <v>114214</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2125546711975788</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1737723240707153</v>
+        <v>0.1725442849365179</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.254823822484849</v>
+        <v>0.2528562392541374</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>179</v>
@@ -4537,19 +4537,19 @@
         <v>201832</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>176398</v>
+        <v>175312</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>227124</v>
+        <v>230649</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2121391295783618</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1854055359675278</v>
+        <v>0.184264992564434</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2387224995882004</v>
+        <v>0.2424275788098306</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>68224</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>53454</v>
+        <v>51413</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>88136</v>
+        <v>85705</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1365247180014404</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1069673989056001</v>
+        <v>0.102883056053617</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1763717532057114</v>
+        <v>0.1715064270413606</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>45</v>
@@ -4587,19 +4587,19 @@
         <v>51413</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>38635</v>
+        <v>38438</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>66752</v>
+        <v>69126</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1138225729106406</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08553335279592574</v>
+        <v>0.08509712012361959</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1477817970581327</v>
+        <v>0.1530369781339141</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>105</v>
@@ -4608,19 +4608,19 @@
         <v>119637</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>98878</v>
+        <v>97391</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>143535</v>
+        <v>142610</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1257465976708759</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1039276314494231</v>
+        <v>0.1023648159773346</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1508642427972211</v>
+        <v>0.1498928121142492</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>19506</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11699</v>
+        <v>11781</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30687</v>
+        <v>30629</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03903467326355445</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0234117464458405</v>
+        <v>0.0235760684074093</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06140756486575454</v>
+        <v>0.06129201330568292</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>31</v>
@@ -4658,19 +4658,19 @@
         <v>34338</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23852</v>
+        <v>23773</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>46842</v>
+        <v>47766</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07602032759603053</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05280516563973658</v>
+        <v>0.05263104198058267</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1037022875295485</v>
+        <v>0.1057488257787028</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>49</v>
@@ -4679,19 +4679,19 @@
         <v>53844</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>40506</v>
+        <v>39871</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>70899</v>
+        <v>70440</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05659406385443044</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04257456111309212</v>
+        <v>0.04190717928782275</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07451997089280528</v>
+        <v>0.07403680303025023</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>4950</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1533</v>
+        <v>1540</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11689</v>
+        <v>13695</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009905059796796069</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003067497566111339</v>
+        <v>0.003080932931912152</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02339080886657447</v>
+        <v>0.02740488947825324</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -4729,19 +4729,19 @@
         <v>13095</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6731</v>
+        <v>6926</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21001</v>
+        <v>21808</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02899013532957403</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0149020942487312</v>
+        <v>0.01533430109463853</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04649472315651658</v>
+        <v>0.04828083566106649</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -4750,19 +4750,19 @@
         <v>18044</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10523</v>
+        <v>10761</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>28822</v>
+        <v>28901</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0189659322292234</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0110600700810069</v>
+        <v>0.01131013065044695</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03029428725291508</v>
+        <v>0.03037728628219141</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>1777700</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1710403</v>
+        <v>1719179</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1835016</v>
+        <v>1840626</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5228601260385829</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5030665253656005</v>
+        <v>0.5056478698423631</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5397181222825177</v>
+        <v>0.5413679472049157</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1451</v>
@@ -4875,19 +4875,19 @@
         <v>1554869</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1494362</v>
+        <v>1501227</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1613200</v>
+        <v>1619603</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4391561452709794</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4220667068313488</v>
+        <v>0.4240055221131991</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4556311974744112</v>
+        <v>0.4574397318533937</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3134</v>
@@ -4896,19 +4896,19 @@
         <v>3332569</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3234886</v>
+        <v>3245218</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3416694</v>
+        <v>3412764</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4801601246387313</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4660858373186197</v>
+        <v>0.4675745747605911</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4922809744580289</v>
+        <v>0.4917147094464703</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>889926</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>841463</v>
+        <v>837966</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>952437</v>
+        <v>941727</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2617465427318896</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2474924598830902</v>
+        <v>0.2464638860980917</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2801323849120767</v>
+        <v>0.276982373602264</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>926</v>
@@ -4946,19 +4946,19 @@
         <v>1001740</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>943333</v>
+        <v>946826</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1056509</v>
+        <v>1056901</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2829306793855693</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.266434383789862</v>
+        <v>0.2674209622172304</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2983996442875773</v>
+        <v>0.2985103406395241</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1752</v>
@@ -4967,19 +4967,19 @@
         <v>1891665</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1811527</v>
+        <v>1816736</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1972213</v>
+        <v>1968982</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2725532290623546</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2610068473430973</v>
+        <v>0.2617573324750499</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2841586683474454</v>
+        <v>0.2836930653948379</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>452214</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>408352</v>
+        <v>415397</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>493462</v>
+        <v>496648</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.133005886701199</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1201052454707495</v>
+        <v>0.1221772232843088</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1451379666045119</v>
+        <v>0.1460750548732306</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>455</v>
@@ -5017,19 +5017,19 @@
         <v>497922</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>455348</v>
+        <v>455223</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>541647</v>
+        <v>542408</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1406328103813972</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1286081737522076</v>
+        <v>0.1285729081042941</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1529823943481623</v>
+        <v>0.1531972845689</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>873</v>
@@ -5038,19 +5038,19 @@
         <v>950136</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>895963</v>
+        <v>890497</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1010769</v>
+        <v>1009343</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1368966174506148</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1290913880001541</v>
+        <v>0.1283038350481321</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1456327370188249</v>
+        <v>0.1454272947903854</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>200726</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>173334</v>
+        <v>174458</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>229977</v>
+        <v>232278</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05903780818233889</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05098142602581999</v>
+        <v>0.05131177522174884</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06764122295478762</v>
+        <v>0.06831805749118178</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>290</v>
@@ -5088,19 +5088,19 @@
         <v>313463</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>280670</v>
+        <v>282074</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>348744</v>
+        <v>349271</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08853428453234899</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07927219397130576</v>
+        <v>0.0796687895991231</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09849897978624751</v>
+        <v>0.09864776496398384</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>478</v>
@@ -5109,19 +5109,19 @@
         <v>514189</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>469545</v>
+        <v>474762</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>557464</v>
+        <v>559963</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0740848772689694</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06765252574033527</v>
+        <v>0.06840428748263704</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08031997968453877</v>
+        <v>0.08068001714710855</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>79388</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>62035</v>
+        <v>62087</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>98544</v>
+        <v>103112</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02334963634598965</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01824577506469958</v>
+        <v>0.01826099366406235</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02898394505417823</v>
+        <v>0.03032760391671077</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>160</v>
@@ -5159,19 +5159,19 @@
         <v>172590</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>144730</v>
+        <v>149430</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>197525</v>
+        <v>197528</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04874608042970517</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04087738585896855</v>
+        <v>0.04220479976319908</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05578887806821506</v>
+        <v>0.05578964418181035</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>229</v>
@@ -5180,19 +5180,19 @@
         <v>251977</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>221288</v>
+        <v>222647</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>284085</v>
+        <v>289643</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0363051515793299</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03188340249089495</v>
+        <v>0.03207926798198248</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04093123949523451</v>
+        <v>0.04173204811709778</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>396797</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>361062</v>
+        <v>362979</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>430259</v>
+        <v>431541</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3524001762188625</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3206631569993568</v>
+        <v>0.3223660395759929</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3821182306205144</v>
+        <v>0.3832568357896975</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>414</v>
@@ -5545,19 +5545,19 @@
         <v>433675</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>397492</v>
+        <v>397270</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>468643</v>
+        <v>466637</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.345151096200043</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3163534632504624</v>
+        <v>0.3161766537420529</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3729811990566455</v>
+        <v>0.3713844901942523</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>785</v>
@@ -5566,19 +5566,19 @@
         <v>830473</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>784048</v>
+        <v>784751</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>877615</v>
+        <v>876363</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3485771081632045</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3290909235057345</v>
+        <v>0.3293862017454747</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.368364131589914</v>
+        <v>0.3678387969163203</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>400823</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>369270</v>
+        <v>367419</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>436228</v>
+        <v>433448</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3559756792431257</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.32795265614973</v>
+        <v>0.3263087239454585</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3874188607456681</v>
+        <v>0.3849497936010142</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>395</v>
@@ -5616,19 +5616,19 @@
         <v>414897</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>381469</v>
+        <v>378597</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>449294</v>
+        <v>449233</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3302055942937534</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3036010863249033</v>
+        <v>0.3013155940624785</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.357581853569736</v>
+        <v>0.3575327264965535</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>777</v>
@@ -5637,19 +5637,19 @@
         <v>815720</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>763331</v>
+        <v>766789</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>864877</v>
+        <v>861548</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3423848803685422</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.320395592009113</v>
+        <v>0.321847104735474</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.363017831863469</v>
+        <v>0.3616202498256931</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>208561</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>184782</v>
+        <v>182923</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>235432</v>
+        <v>232869</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1852257856929833</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1641067617447664</v>
+        <v>0.1624557585787836</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.209089607609817</v>
+        <v>0.2068136687587865</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>225</v>
@@ -5687,19 +5687,19 @@
         <v>243152</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>217134</v>
+        <v>217439</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>273698</v>
+        <v>274456</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.19351811990318</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1728112684607351</v>
+        <v>0.1730538522183429</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2178295519486753</v>
+        <v>0.2184320738552381</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>424</v>
@@ -5708,19 +5708,19 @@
         <v>451713</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>416320</v>
+        <v>415519</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>492050</v>
+        <v>491437</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1895990520858966</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1747433318886228</v>
+        <v>0.1744072909658476</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2065297039512228</v>
+        <v>0.206272591239635</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>94574</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>74647</v>
+        <v>77446</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>112764</v>
+        <v>115997</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08399222684477496</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06629463769732094</v>
+        <v>0.06878087230751577</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1001467116696278</v>
+        <v>0.1030178096369278</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>104</v>
@@ -5758,19 +5758,19 @@
         <v>115299</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>95058</v>
+        <v>97700</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>139981</v>
+        <v>139313</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09176382200795626</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0756545395980347</v>
+        <v>0.07775705114312631</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1114076213977887</v>
+        <v>0.1108757209281465</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>193</v>
@@ -5779,19 +5779,19 @@
         <v>209873</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>183563</v>
+        <v>180771</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>240126</v>
+        <v>237089</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08809086241407897</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07704735413119859</v>
+        <v>0.07587551463671457</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1007887038677144</v>
+        <v>0.09951426534177314</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>25229</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16256</v>
+        <v>16247</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>37976</v>
+        <v>36724</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02240613200025347</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01443728824590594</v>
+        <v>0.01442935746617855</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03372717118364885</v>
+        <v>0.03261506479679194</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>47</v>
@@ -5829,19 +5829,19 @@
         <v>49457</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>37213</v>
+        <v>37251</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>65151</v>
+        <v>64950</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03936136759506732</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02961709088684676</v>
+        <v>0.02964712604024025</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05185229252853824</v>
+        <v>0.05169195455975421</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>70</v>
@@ -5850,19 +5850,19 @@
         <v>74686</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>59624</v>
+        <v>58646</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>93366</v>
+        <v>92850</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03134809696827768</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02502620402545832</v>
+        <v>0.02461578134778483</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03918868588747708</v>
+        <v>0.03897232441188555</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>376165</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>343112</v>
+        <v>342525</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>407032</v>
+        <v>406864</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4145396868789983</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3781144502783748</v>
+        <v>0.3774678107106281</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4485556943348515</v>
+        <v>0.4483703200926</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>333</v>
@@ -5975,19 +5975,19 @@
         <v>348549</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>315271</v>
+        <v>316402</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>380183</v>
+        <v>378500</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3472778931809626</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3141213544475525</v>
+        <v>0.3152486659796105</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.378796730114793</v>
+        <v>0.3771194530665324</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>698</v>
@@ -5996,19 +5996,19 @@
         <v>724714</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>683200</v>
+        <v>680650</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>769065</v>
+        <v>767873</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3792153212452994</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3574925947144377</v>
+        <v>0.3561585084261692</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4024226635806247</v>
+        <v>0.4017990799958059</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>323250</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>292972</v>
+        <v>292683</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>353028</v>
+        <v>352678</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3562262424407306</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.322860004476389</v>
+        <v>0.3225417617981858</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3890422356583002</v>
+        <v>0.3886566620628463</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>316</v>
@@ -6046,19 +6046,19 @@
         <v>335813</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>307400</v>
+        <v>305846</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>369047</v>
+        <v>366218</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3345879975836891</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3062791863848321</v>
+        <v>0.3047310747766834</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3677015688378635</v>
+        <v>0.3648826750747735</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>632</v>
@@ -6067,19 +6067,19 @@
         <v>659062</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>620501</v>
+        <v>623777</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>704048</v>
+        <v>702600</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3448623279362627</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.324684494509355</v>
+        <v>0.3263990963127713</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3684015836379311</v>
+        <v>0.367644125549849</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>157247</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>134469</v>
+        <v>135032</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>181211</v>
+        <v>183032</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1732888632006362</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1481869402088397</v>
+        <v>0.1488070010111922</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1996968894230279</v>
+        <v>0.2017044516544188</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>192</v>
@@ -6117,19 +6117,19 @@
         <v>203189</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>180204</v>
+        <v>175648</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>228709</v>
+        <v>228505</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2024478605427538</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1795472331180026</v>
+        <v>0.1750078096493999</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2278753068405392</v>
+        <v>0.2276721694391028</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>344</v>
@@ -6138,19 +6138,19 @@
         <v>360436</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>326847</v>
+        <v>329025</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>393243</v>
+        <v>396272</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1886025060132141</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1710266382004753</v>
+        <v>0.1721662967483236</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2057689547969107</v>
+        <v>0.2073542430670054</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>40011</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28694</v>
+        <v>28286</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55014</v>
+        <v>54638</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04409325576775542</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03162125351980156</v>
+        <v>0.03117133593494477</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06062578364235852</v>
+        <v>0.06021191717919639</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>76</v>
@@ -6188,19 +6188,19 @@
         <v>82353</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>64777</v>
+        <v>64184</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>100347</v>
+        <v>101866</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08205262534180342</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06454102383633416</v>
+        <v>0.0639495891001057</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09998098234157461</v>
+        <v>0.1014946410362327</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>113</v>
@@ -6209,19 +6209,19 @@
         <v>122364</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>100621</v>
+        <v>101386</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>146822</v>
+        <v>146552</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0640286541021822</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05265110196383381</v>
+        <v>0.05305145872939956</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07682651231076605</v>
+        <v>0.07668490652644261</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>10755</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5123</v>
+        <v>5056</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20301</v>
+        <v>20519</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01185195171187938</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00564562967591107</v>
+        <v>0.005571734452285088</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02237209915421377</v>
+        <v>0.02261221565352155</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>32</v>
@@ -6259,19 +6259,19 @@
         <v>33757</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23392</v>
+        <v>23393</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46113</v>
+        <v>46743</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03363362335079099</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0233071744265492</v>
+        <v>0.02330740416207065</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04594506401563164</v>
+        <v>0.04657253156514241</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>42</v>
@@ -6280,19 +6280,19 @@
         <v>44512</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>32926</v>
+        <v>32774</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>59792</v>
+        <v>58749</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02329119070304168</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01722875690108275</v>
+        <v>0.01714955514834057</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03128698856351902</v>
+        <v>0.03074124933748771</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>390222</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>360302</v>
+        <v>361361</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>420093</v>
+        <v>418173</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4748170765766332</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4384106277365253</v>
+        <v>0.4396997736434576</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5111640722741259</v>
+        <v>0.5088273409571901</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>308</v>
@@ -6405,19 +6405,19 @@
         <v>316699</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>288831</v>
+        <v>287941</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>345374</v>
+        <v>345054</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4107325241393179</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3745899973838976</v>
+        <v>0.3734363282987262</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4479216809026342</v>
+        <v>0.4475069430983852</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>684</v>
@@ -6426,19 +6426,19 @@
         <v>706921</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>667807</v>
+        <v>670818</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>750603</v>
+        <v>749729</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4437962179206654</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4192409686306507</v>
+        <v>0.4211310423629417</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4712191915930048</v>
+        <v>0.4706706927957834</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>286665</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>260496</v>
+        <v>257694</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>315234</v>
+        <v>312678</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3488103430662622</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3169680529673757</v>
+        <v>0.3135591510339189</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3835731564692927</v>
+        <v>0.3804622282658229</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>258</v>
@@ -6476,19 +6476,19 @@
         <v>273989</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>247393</v>
+        <v>245379</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>300442</v>
+        <v>299973</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3553412736526093</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3208477978875536</v>
+        <v>0.3182368640671904</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3896486859795553</v>
+        <v>0.3890399011641796</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>531</v>
@@ -6497,19 +6497,19 @@
         <v>560654</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>521030</v>
+        <v>522354</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>599952</v>
+        <v>595077</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3519717145185974</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3270961680068281</v>
+        <v>0.3279276476309188</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3766423559622878</v>
+        <v>0.373582139333023</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>120134</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>99886</v>
+        <v>100672</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>143273</v>
+        <v>143649</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1461776004670677</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1215406573670231</v>
+        <v>0.1224961920882481</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1743323288796742</v>
+        <v>0.1747900547674701</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>107</v>
@@ -6547,19 +6547,19 @@
         <v>120745</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>99933</v>
+        <v>100219</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>143968</v>
+        <v>143655</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1565962732392645</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1296050568940446</v>
+        <v>0.1299757522222101</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.18671524576235</v>
+        <v>0.1863092771478538</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>219</v>
@@ -6568,19 +6568,19 @@
         <v>240879</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>210323</v>
+        <v>210786</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>271460</v>
+        <v>269452</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1512208778741345</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1320380466489106</v>
+        <v>0.132329034860603</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1704194713554613</v>
+        <v>0.1691584224893574</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>15658</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8978</v>
+        <v>9188</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23990</v>
+        <v>25318</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01905217017258069</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01092425683065801</v>
+        <v>0.01118040827929301</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02919049607774962</v>
+        <v>0.03080677688273147</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -6618,19 +6618,19 @@
         <v>34917</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24524</v>
+        <v>25210</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>48647</v>
+        <v>50025</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0452850685005207</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03180509208120835</v>
+        <v>0.03269472462406062</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06309109280244021</v>
+        <v>0.0648782260787483</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>48</v>
@@ -6639,19 +6639,19 @@
         <v>50575</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38856</v>
+        <v>37403</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>67084</v>
+        <v>66983</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03175050386170791</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02439346077047483</v>
+        <v>0.0234811129096984</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04211471215659127</v>
+        <v>0.04205119968979656</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>9158</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4271</v>
+        <v>4572</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17476</v>
+        <v>18713</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01114280971745619</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005196962936945102</v>
+        <v>0.005563639621181562</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02126505719255448</v>
+        <v>0.0227695641751643</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>23</v>
@@ -6689,19 +6689,19 @@
         <v>24708</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15771</v>
+        <v>16490</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35419</v>
+        <v>38184</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03204486046828763</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0204532253306493</v>
+        <v>0.02138609519854334</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04593511953926394</v>
+        <v>0.04952209432657078</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>31</v>
@@ -6710,19 +6710,19 @@
         <v>33866</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>23788</v>
+        <v>23238</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>48557</v>
+        <v>47571</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02126068582489478</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01493388395272313</v>
+        <v>0.01458831147747349</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03048372377864583</v>
+        <v>0.02986462375948321</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>278513</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>254880</v>
+        <v>257655</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>302848</v>
+        <v>302219</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5496598600670594</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5030185937918934</v>
+        <v>0.5084943154453435</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5976865117632127</v>
+        <v>0.5964440940984773</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>224</v>
@@ -6835,19 +6835,19 @@
         <v>244497</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>222283</v>
+        <v>223373</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>268366</v>
+        <v>268486</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5002367833317306</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4547861847604139</v>
+        <v>0.4570177720344213</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5490725311894857</v>
+        <v>0.5493175703746004</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>486</v>
@@ -6856,19 +6856,19 @@
         <v>523010</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>492591</v>
+        <v>486000</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>556033</v>
+        <v>552101</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5253936119396776</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4948357513852298</v>
+        <v>0.4882143884346075</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5585671179416903</v>
+        <v>0.5546170843670292</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>119805</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>98480</v>
+        <v>101465</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>142041</v>
+        <v>139215</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2364402670518409</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1943543692114935</v>
+        <v>0.200246857511561</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2803251669406876</v>
+        <v>0.2747478906893591</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>120</v>
@@ -6906,19 +6906,19 @@
         <v>127997</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>106141</v>
+        <v>108366</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>148780</v>
+        <v>149236</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2618793910787204</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.217163239118523</v>
+        <v>0.2217144489078464</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3044015581218926</v>
+        <v>0.3053341455705507</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>230</v>
@@ -6927,19 +6927,19 @@
         <v>247801</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>219604</v>
+        <v>221612</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>276869</v>
+        <v>279545</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2489306285703141</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2206051232300202</v>
+        <v>0.2226221476856626</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2781303782260497</v>
+        <v>0.2808182928424238</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>74811</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>60412</v>
+        <v>59223</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>91815</v>
+        <v>93507</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1476437633696079</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.11922533140796</v>
+        <v>0.1168803162785178</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1812015360913015</v>
+        <v>0.1845413769581157</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>55</v>
@@ -6977,19 +6977,19 @@
         <v>57199</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>43664</v>
+        <v>43766</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>72617</v>
+        <v>73834</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1170273191380157</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08933588412960923</v>
+        <v>0.08954520954286377</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1485732367850552</v>
+        <v>0.1510621751204234</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>124</v>
@@ -6998,19 +6998,19 @@
         <v>132010</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>110570</v>
+        <v>111658</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>154237</v>
+        <v>156340</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1326113881801675</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1110733466579345</v>
+        <v>0.1121663572248793</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1549395592716396</v>
+        <v>0.1570522148211916</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>19545</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11613</v>
+        <v>11368</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30258</v>
+        <v>30242</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03857351603701049</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02291960367209462</v>
+        <v>0.02243592368290342</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05971499959029139</v>
+        <v>0.05968375066527187</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -7048,19 +7048,19 @@
         <v>40859</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30574</v>
+        <v>29102</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>55720</v>
+        <v>53932</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08359632294937626</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06255406142917136</v>
+        <v>0.05954189048986869</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1140021171569326</v>
+        <v>0.1103435862862392</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>56</v>
@@ -7069,19 +7069,19 @@
         <v>60404</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>47059</v>
+        <v>46073</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>77399</v>
+        <v>78433</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06067927464401562</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04727353827102043</v>
+        <v>0.04628277242618128</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07775137363983067</v>
+        <v>0.07879039897782288</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>14027</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7456</v>
+        <v>7432</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23187</v>
+        <v>25117</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02768259347448133</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01471454015685515</v>
+        <v>0.01466669898173908</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04576119192527207</v>
+        <v>0.049570169329575</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>17</v>
@@ -7119,19 +7119,19 @@
         <v>18211</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10392</v>
+        <v>10905</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>28297</v>
+        <v>28613</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03726018350215695</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02126085179339178</v>
+        <v>0.02231225008698931</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05789478358274845</v>
+        <v>0.0585419120859365</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>29</v>
@@ -7140,19 +7140,19 @@
         <v>32238</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>22628</v>
+        <v>21721</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>45758</v>
+        <v>45929</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03238509666582516</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.022731428502659</v>
+        <v>0.02182046652481566</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04596630283458732</v>
+        <v>0.04613876795854567</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>1441697</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1384660</v>
+        <v>1380862</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1497068</v>
+        <v>1496668</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4288276767583004</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4118622562830418</v>
+        <v>0.4107326562883397</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4452977066256557</v>
+        <v>0.4451785967440786</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1279</v>
@@ -7265,19 +7265,19 @@
         <v>1343421</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1286088</v>
+        <v>1287288</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1398346</v>
+        <v>1402050</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3816577074510382</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.36536978588508</v>
+        <v>0.3657108476019478</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3972616246729229</v>
+        <v>0.3983138793076589</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2653</v>
@@ -7286,19 +7286,19 @@
         <v>2785117</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2703838</v>
+        <v>2696535</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2865048</v>
+        <v>2876072</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4047011672120565</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3928905102288044</v>
+        <v>0.3918294386615129</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4163157349929733</v>
+        <v>0.4179176526419542</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>1130542</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1077188</v>
+        <v>1070482</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1188040</v>
+        <v>1179098</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.336275779459139</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3204058379093848</v>
+        <v>0.3184110107956808</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3533782552276363</v>
+        <v>0.350718591912561</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1089</v>
@@ -7336,19 +7336,19 @@
         <v>1152695</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1096736</v>
+        <v>1095821</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1210444</v>
+        <v>1206288</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3274738037136761</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3115759952210616</v>
+        <v>0.311316185366545</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3438797569552912</v>
+        <v>0.3426992840450018</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2170</v>
@@ -7357,19 +7357,19 @@
         <v>2283237</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2208539</v>
+        <v>2206774</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2361882</v>
+        <v>2368365</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3317737423586818</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3209193712086267</v>
+        <v>0.3206629396184947</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.343201425619993</v>
+        <v>0.3441434724200971</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>560754</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>519531</v>
+        <v>521284</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>607651</v>
+        <v>607492</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1667942350708575</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1545327326910305</v>
+        <v>0.1550541340728282</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1807436646075288</v>
+        <v>0.1806962493307656</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>579</v>
@@ -7407,19 +7407,19 @@
         <v>624284</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>580089</v>
+        <v>574659</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>672812</v>
+        <v>673490</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1773553387725388</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1647998520966865</v>
+        <v>0.163257056797552</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1911417486929356</v>
+        <v>0.19133434522464</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1111</v>
@@ -7428,19 +7428,19 @@
         <v>1185038</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1122315</v>
+        <v>1122619</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1253044</v>
+        <v>1247538</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1721960314472281</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1630818633160178</v>
+        <v>0.1631259888890915</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1820778761917529</v>
+        <v>0.1812778175106915</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>169788</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>145068</v>
+        <v>144736</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>196910</v>
+        <v>198577</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05050296299656919</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04314993787681857</v>
+        <v>0.04305134731249324</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0585701491477448</v>
+        <v>0.05906592840373982</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>250</v>
@@ -7478,19 +7478,19 @@
         <v>273429</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>241672</v>
+        <v>243994</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>307280</v>
+        <v>309734</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07767941884808852</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06865750040404789</v>
+        <v>0.06931724167837301</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0872962754947524</v>
+        <v>0.08799342854836019</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>410</v>
@@ -7499,19 +7499,19 @@
         <v>443217</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>403661</v>
+        <v>402843</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>490739</v>
+        <v>491539</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06440318449690013</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05865539614926157</v>
+        <v>0.05853647590835634</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07130858105095343</v>
+        <v>0.07142477782606688</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>59168</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>43929</v>
+        <v>44844</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>75636</v>
+        <v>77759</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01759934571513396</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01306650429640576</v>
+        <v>0.01333856154009369</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02249754714836005</v>
+        <v>0.0231292346232224</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>119</v>
@@ -7549,19 +7549,19 @@
         <v>126133</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>104134</v>
+        <v>105471</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>149248</v>
+        <v>149898</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03583373121465848</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02958394924690444</v>
+        <v>0.02996361018884637</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04240036208647189</v>
+        <v>0.04258515341108841</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>172</v>
@@ -7570,19 +7570,19 @@
         <v>185301</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>160557</v>
+        <v>160775</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>215613</v>
+        <v>217060</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02692587448513337</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02333031204857558</v>
+        <v>0.02336189787255394</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03133033273784416</v>
+        <v>0.03154059561505072</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>214657</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>186338</v>
+        <v>191006</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>238500</v>
+        <v>240922</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4304004031879654</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3736184117909725</v>
+        <v>0.382977439678829</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4782056108723242</v>
+        <v>0.4830630943753616</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>313</v>
@@ -7935,19 +7935,19 @@
         <v>243920</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>220151</v>
+        <v>221894</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>266192</v>
+        <v>265682</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3932369114210417</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3549177426562481</v>
+        <v>0.3577266380351034</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4291425735135223</v>
+        <v>0.4283207307089975</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>492</v>
@@ -7956,19 +7956,19 @@
         <v>458578</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>424310</v>
+        <v>424827</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>494990</v>
+        <v>493289</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4098003106587642</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3791779604089702</v>
+        <v>0.3796395569386853</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4423394701420848</v>
+        <v>0.4408198260820935</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>108762</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>90184</v>
+        <v>89078</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>132187</v>
+        <v>129369</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2180734283689631</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1808239838874312</v>
+        <v>0.1786054532515885</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2650424915836096</v>
+        <v>0.2593924384086135</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>217</v>
@@ -8006,19 +8006,19 @@
         <v>153939</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>133400</v>
+        <v>135360</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>172044</v>
+        <v>174523</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2481741570360974</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2150618691437526</v>
+        <v>0.2182211716562426</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2773622824185219</v>
+        <v>0.2813584301462709</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>318</v>
@@ -8027,19 +8027,19 @@
         <v>262701</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>235104</v>
+        <v>235940</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>289726</v>
+        <v>293278</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2347585611769418</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2100971221325306</v>
+        <v>0.2108443112482024</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2589088831156532</v>
+        <v>0.2620834076749052</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>98937</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>80131</v>
+        <v>79931</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>120741</v>
+        <v>119097</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1983750044652454</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1606668176674452</v>
+        <v>0.1602652384543831</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2420931059202</v>
+        <v>0.2387952760108579</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>156</v>
@@ -8077,19 +8077,19 @@
         <v>110144</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>94775</v>
+        <v>94992</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>128411</v>
+        <v>128547</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1775691149674399</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1527911492317604</v>
+        <v>0.1531421441674019</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2070189332704779</v>
+        <v>0.2072373204136131</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>248</v>
@@ -8098,19 +8098,19 @@
         <v>209081</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>183006</v>
+        <v>184082</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>234644</v>
+        <v>236820</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1868420933089101</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1635405747088613</v>
+        <v>0.16450182982825</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2096861586402813</v>
+        <v>0.2116302690403847</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>46697</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34806</v>
+        <v>35087</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59858</v>
+        <v>60513</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.09363004043302897</v>
+        <v>0.09363004043302901</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06978738187895631</v>
+        <v>0.07035224960845843</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1200184039336009</v>
+        <v>0.1213320910346865</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>112</v>
@@ -8148,19 +8148,19 @@
         <v>76044</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61921</v>
+        <v>62635</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>90389</v>
+        <v>91908</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1225946119950716</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09982671217219127</v>
+        <v>0.1009773589969508</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1457207991698755</v>
+        <v>0.1481699390613541</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>162</v>
@@ -8169,19 +8169,19 @@
         <v>122741</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>104960</v>
+        <v>104086</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>147457</v>
+        <v>143608</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1096853900753303</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09379571274877624</v>
+        <v>0.0930151480635928</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1317720722822392</v>
+        <v>0.1283331364534432</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>29686</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20602</v>
+        <v>20258</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>41058</v>
+        <v>42031</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05952112354479722</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0413073779285454</v>
+        <v>0.04061819516359395</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08232399859274836</v>
+        <v>0.08427430839731599</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>58</v>
@@ -8219,19 +8219,19 @@
         <v>36240</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28509</v>
+        <v>27669</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>46334</v>
+        <v>46224</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05842520458034923</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04596093402937265</v>
+        <v>0.04460671081605215</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07469793011025337</v>
+        <v>0.07451986416782876</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>91</v>
@@ -8240,19 +8240,19 @@
         <v>65926</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>52981</v>
+        <v>52764</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>81804</v>
+        <v>82150</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05891364478005348</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04734559871358266</v>
+        <v>0.04715172553234059</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07310239876363696</v>
+        <v>0.07341223474749885</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>501064</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>463004</v>
+        <v>467217</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>532244</v>
+        <v>538002</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5236593558829963</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4838827145084913</v>
+        <v>0.4882864539571957</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5562451980440394</v>
+        <v>0.5622627757328329</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>713</v>
@@ -8365,19 +8365,19 @@
         <v>535209</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>505433</v>
+        <v>506961</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>566424</v>
+        <v>564843</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4799474560077957</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4532458397646449</v>
+        <v>0.4546161531324151</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5079392279777902</v>
+        <v>0.5065220032912491</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1167</v>
@@ -8386,19 +8386,19 @@
         <v>1036273</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>992431</v>
+        <v>989964</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1082433</v>
+        <v>1083430</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5001337152906771</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4789742214243088</v>
+        <v>0.4777835032918722</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.52241189504118</v>
+        <v>0.5228928299402251</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>285952</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>254870</v>
+        <v>255902</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317491</v>
+        <v>320888</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2988466180711911</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2663638163313206</v>
+        <v>0.2674417038715191</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3318078132540636</v>
+        <v>0.3353587961430862</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>517</v>
@@ -8436,19 +8436,19 @@
         <v>336813</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>311082</v>
+        <v>311605</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>365492</v>
+        <v>364053</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3020364412454615</v>
+        <v>0.3020364412454616</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2789621485363138</v>
+        <v>0.2794308429599611</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3277540392760931</v>
+        <v>0.3264633378635829</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>786</v>
@@ -8457,19 +8457,19 @@
         <v>622765</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>583303</v>
+        <v>581141</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>663896</v>
+        <v>661431</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3005633733201093</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2815180301184194</v>
+        <v>0.2804747058321995</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3204144344980505</v>
+        <v>0.3192246482262001</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>105925</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>87141</v>
+        <v>86249</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>126749</v>
+        <v>127794</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1107021870859098</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09107067505028035</v>
+        <v>0.09013880680843483</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1324645074822679</v>
+        <v>0.1335563720852195</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>236</v>
@@ -8507,19 +8507,19 @@
         <v>152594</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>133984</v>
+        <v>134847</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>173584</v>
+        <v>174319</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1368381074463405</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1201494519383049</v>
+        <v>0.1209235547780152</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1556613596245459</v>
+        <v>0.1563205066070893</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>351</v>
@@ -8528,19 +8528,19 @@
         <v>258519</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>230740</v>
+        <v>232627</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>287495</v>
+        <v>288140</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1247684772884504</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1113613505059776</v>
+        <v>0.1122721258602493</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1387527076562575</v>
+        <v>0.1390642564121159</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>45159</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33443</v>
+        <v>33662</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60056</v>
+        <v>60467</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04719534388762903</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03495107919287892</v>
+        <v>0.03517952133131534</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06276426760401069</v>
+        <v>0.06319387562923585</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>102</v>
@@ -8578,19 +8578,19 @@
         <v>64727</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52707</v>
+        <v>53060</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>78664</v>
+        <v>77165</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05804351097310553</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04726508310001021</v>
+        <v>0.04758148285112668</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07054211424742075</v>
+        <v>0.06919753050107613</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>151</v>
@@ -8599,19 +8599,19 @@
         <v>109886</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>93155</v>
+        <v>93714</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>130524</v>
+        <v>131058</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05303380162263902</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04495896372074312</v>
+        <v>0.04522883059785354</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06299422398113144</v>
+        <v>0.06325206148575375</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>18751</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11607</v>
+        <v>11648</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28674</v>
+        <v>28506</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01959649507227385</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01212992848370007</v>
+        <v>0.01217318399065395</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02996751285396348</v>
+        <v>0.02979193820754114</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>38</v>
@@ -8649,19 +8649,19 @@
         <v>25798</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18113</v>
+        <v>17697</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35256</v>
+        <v>35545</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02313448432729662</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01624238844462574</v>
+        <v>0.0158693478529654</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03161555708668475</v>
+        <v>0.03187481694214321</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>58</v>
@@ -8670,19 +8670,19 @@
         <v>44549</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>33526</v>
+        <v>32897</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>58342</v>
+        <v>58406</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.02150063247812415</v>
+        <v>0.02150063247812416</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01618073788075777</v>
+        <v>0.01587681154569878</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02815723391022514</v>
+        <v>0.02818814546534425</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>662684</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>624831</v>
+        <v>627075</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>694560</v>
+        <v>695453</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6338759311997785</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5976690165119936</v>
+        <v>0.5998148299163985</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6643662215473394</v>
+        <v>0.6652210599742505</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>843</v>
@@ -8795,19 +8795,19 @@
         <v>609935</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>581864</v>
+        <v>582727</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>639493</v>
+        <v>637027</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5839303403227727</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.557056275830742</v>
+        <v>0.5578827092116233</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6122277496836964</v>
+        <v>0.6098671222402499</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1466</v>
@@ -8816,19 +8816,19 @@
         <v>1272619</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1227748</v>
+        <v>1227268</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1317776</v>
+        <v>1312282</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6089140493666033</v>
+        <v>0.6089140493666032</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5874445153217737</v>
+        <v>0.5872147135660645</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6305204864031309</v>
+        <v>0.6278918292949358</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>259399</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>230399</v>
+        <v>233365</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>290171</v>
+        <v>292263</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2481227817205149</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2203834626548716</v>
+        <v>0.2232199872922206</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2775565916343953</v>
+        <v>0.2795583461966812</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>447</v>
@@ -8866,19 +8866,19 @@
         <v>292886</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>268733</v>
+        <v>268774</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>321099</v>
+        <v>317535</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2803988783924006</v>
+        <v>0.2803988783924005</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2572750692836312</v>
+        <v>0.2573150424483569</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3074087154131097</v>
+        <v>0.3039964126458358</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>723</v>
@@ -8887,19 +8887,19 @@
         <v>552285</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>511437</v>
+        <v>519284</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>590931</v>
+        <v>596079</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.26425377741028</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2447090330100289</v>
+        <v>0.2484636278573053</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2827446991854753</v>
+        <v>0.2852076542673104</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>92728</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>75427</v>
+        <v>75090</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>114368</v>
+        <v>115536</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08869659313768377</v>
+        <v>0.08869659313768379</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07214776314198798</v>
+        <v>0.07182533749670884</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1093963738251284</v>
+        <v>0.1105135618472868</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>136</v>
@@ -8937,19 +8937,19 @@
         <v>85847</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>72485</v>
+        <v>71782</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>103791</v>
+        <v>102997</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.08218671467900379</v>
+        <v>0.08218671467900378</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06939423807318393</v>
+        <v>0.06872187076566454</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09936618718984837</v>
+        <v>0.09860572178402317</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>231</v>
@@ -8958,19 +8958,19 @@
         <v>178574</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>156329</v>
+        <v>156847</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>207049</v>
+        <v>203159</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08544307638113831</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07479922161717287</v>
+        <v>0.07504716542602838</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09906753061641152</v>
+        <v>0.09720607101186142</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>16573</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10012</v>
+        <v>10083</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26174</v>
+        <v>26097</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01585207295170649</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009576931307958154</v>
+        <v>0.009645092663662279</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02503648425528896</v>
+        <v>0.02496208453381269</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>59</v>
@@ -9008,19 +9008,19 @@
         <v>38306</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29746</v>
+        <v>29557</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49754</v>
+        <v>50123</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03667250085613923</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02847797988624833</v>
+        <v>0.02829639068721548</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04763253343355613</v>
+        <v>0.04798618419267023</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>78</v>
@@ -9029,19 +9029,19 @@
         <v>54878</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>42323</v>
+        <v>44056</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>68345</v>
+        <v>69582</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02625773743461212</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02025020777250892</v>
+        <v>0.02107955131815772</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03270103109037249</v>
+        <v>0.03329331597201884</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>14064</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7811</v>
+        <v>8206</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22683</v>
+        <v>24110</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01345262099031622</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007471256673835499</v>
+        <v>0.007849368708434987</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0216967559780755</v>
+        <v>0.0230614959455404</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>27</v>
@@ -9079,19 +9079,19 @@
         <v>17560</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11877</v>
+        <v>11789</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24728</v>
+        <v>24568</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01681156574968365</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01137038240434272</v>
+        <v>0.0112867357600012</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02367391774939094</v>
+        <v>0.02352013021564045</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>42</v>
@@ -9100,19 +9100,19 @@
         <v>31624</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>22359</v>
+        <v>23039</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>41633</v>
+        <v>43197</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01513135940736625</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01069797950022978</v>
+        <v>0.01102368964795277</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01992013675907221</v>
+        <v>0.02066884795139441</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>595804</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>562078</v>
+        <v>561298</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>626862</v>
+        <v>627403</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6148332542247155</v>
+        <v>0.6148332542247154</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5800303283961924</v>
+        <v>0.5792258190757403</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.646883649896443</v>
+        <v>0.6474423283491249</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>725</v>
@@ -9225,19 +9225,19 @@
         <v>531178</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>505728</v>
+        <v>504224</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>556771</v>
+        <v>555655</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5869239474885802</v>
+        <v>0.5869239474885801</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5588027287858202</v>
+        <v>0.5571409382352006</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6152024518362285</v>
+        <v>0.6139694509136397</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1275</v>
@@ -9246,19 +9246,19 @@
         <v>1126981</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1086481</v>
+        <v>1083110</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1171170</v>
+        <v>1167279</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6013553707362037</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5797447922065643</v>
+        <v>0.5779459737611288</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6249348333758018</v>
+        <v>0.6228584121281284</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>249807</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>224274</v>
+        <v>223345</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>282713</v>
+        <v>277107</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2577854470013887</v>
+        <v>0.2577854470013886</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2314372673163301</v>
+        <v>0.2304782939843719</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2917425549692774</v>
+        <v>0.2859575575283985</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>421</v>
@@ -9296,19 +9296,19 @@
         <v>249788</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>227679</v>
+        <v>226887</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>274129</v>
+        <v>272239</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2760025891444606</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2515737891603598</v>
+        <v>0.2506982390901099</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3028983069676641</v>
+        <v>0.3008102841876955</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>698</v>
@@ -9317,19 +9317,19 @@
         <v>499594</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>462782</v>
+        <v>465350</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>538150</v>
+        <v>538211</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.266582817771623</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2469396137385152</v>
+        <v>0.24830985927737</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.287156137511023</v>
+        <v>0.2871884846554044</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>76289</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>59352</v>
+        <v>58879</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>96349</v>
+        <v>96665</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.07872537140406038</v>
+        <v>0.07872537140406036</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06124761949346801</v>
+        <v>0.06075948864811395</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09942606623045416</v>
+        <v>0.09975218134290581</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>75</v>
@@ -9367,19 +9367,19 @@
         <v>54443</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>43790</v>
+        <v>43424</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>71007</v>
+        <v>69954</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06015709651140457</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04838621741045094</v>
+        <v>0.04798159757558938</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07845947999318023</v>
+        <v>0.07729600634904089</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>144</v>
@@ -9388,19 +9388,19 @@
         <v>130732</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>110375</v>
+        <v>109142</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>154543</v>
+        <v>154358</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.06975843259931211</v>
+        <v>0.06975843259931212</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0588961678524295</v>
+        <v>0.0582381729335123</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08246411355209481</v>
+        <v>0.08236528948052139</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>34976</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23626</v>
+        <v>24107</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>49890</v>
+        <v>50113</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03609264685074026</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0243806750851292</v>
+        <v>0.02487731389255797</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05148323461902093</v>
+        <v>0.05171407724308568</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>70</v>
@@ -9438,19 +9438,19 @@
         <v>48908</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37400</v>
+        <v>37711</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>62306</v>
+        <v>60624</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05404127796551767</v>
+        <v>0.05404127796551768</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04132468775853642</v>
+        <v>0.04166906176597009</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06884476494519022</v>
+        <v>0.06698634031456142</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>104</v>
@@ -9459,19 +9459,19 @@
         <v>83884</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>67942</v>
+        <v>69608</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>102543</v>
+        <v>103164</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0447603490344723</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03625397559928319</v>
+        <v>0.03714258480327289</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05471688871220765</v>
+        <v>0.05504820054841746</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>12174</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6489</v>
+        <v>6716</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21918</v>
+        <v>20632</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01256328051909528</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006696524800330115</v>
+        <v>0.006930007184040678</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0226185616161768</v>
+        <v>0.02129052265209362</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>24</v>
@@ -9509,19 +9509,19 @@
         <v>20702</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12486</v>
+        <v>13343</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>33378</v>
+        <v>33403</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02287508889003704</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01379634234366036</v>
+        <v>0.01474354004417205</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0368812147770966</v>
+        <v>0.03690810706599595</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>37</v>
@@ -9530,19 +9530,19 @@
         <v>32877</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>23216</v>
+        <v>21596</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>47098</v>
+        <v>46074</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01754302985838893</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01238814751816373</v>
+        <v>0.01152385922509732</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02513127715138975</v>
+        <v>0.0245847575634481</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>1974209</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1907659</v>
+        <v>1903393</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2045355</v>
+        <v>2037831</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5689221121607557</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5497441018409462</v>
+        <v>0.5485147024178362</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5894249442085217</v>
+        <v>0.5872567683734969</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2594</v>
@@ -9655,19 +9655,19 @@
         <v>1920242</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1866342</v>
+        <v>1867226</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1974150</v>
+        <v>1972454</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5210993441944838</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5064723662444814</v>
+        <v>0.5067121439025613</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.535728320931262</v>
+        <v>0.5352680542829876</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4400</v>
@@ -9676,19 +9676,19 @@
         <v>3894451</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3815112</v>
+        <v>3811315</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3976850</v>
+        <v>3979908</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5442925689121815</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5332041103496461</v>
+        <v>0.5326734748275763</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5558088193235454</v>
+        <v>0.5562361283877794</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>903919</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>853411</v>
+        <v>851997</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>965221</v>
+        <v>967407</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2604890266900004</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2459337530414729</v>
+        <v>0.2455261523624668</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2781546837829107</v>
+        <v>0.2787846420304158</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1602</v>
@@ -9726,19 +9726,19 @@
         <v>1033427</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>987319</v>
+        <v>987365</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1085372</v>
+        <v>1079812</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2804427313469418</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2679305247818571</v>
+        <v>0.2679428449459744</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2945391941431545</v>
+        <v>0.293030283103342</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2525</v>
@@ -9747,19 +9747,19 @@
         <v>1937346</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1859561</v>
+        <v>1869920</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2010045</v>
+        <v>2013359</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2707655257869164</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2598942058270718</v>
+        <v>0.2613420274490525</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2809260466374664</v>
+        <v>0.2813892079371188</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>373879</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>335472</v>
+        <v>334374</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>422415</v>
+        <v>413638</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1077435013170088</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09667534201709212</v>
+        <v>0.09635898374152745</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1217303016183072</v>
+        <v>0.1192011338021479</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>603</v>
@@ -9797,19 +9797,19 @@
         <v>403028</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>370335</v>
+        <v>369077</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>433904</v>
+        <v>436124</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.109370374964922</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1004984260340945</v>
+        <v>0.1001570958935028</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1177492171407313</v>
+        <v>0.1183516986639369</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>974</v>
@@ -9818,19 +9818,19 @@
         <v>776907</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>725748</v>
+        <v>726021</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>832201</v>
+        <v>828532</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1085813690644278</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.101431249272594</v>
+        <v>0.10146947146994</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1163092821078175</v>
+        <v>0.1157964916075784</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>143404</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>120361</v>
+        <v>122898</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>166504</v>
+        <v>170426</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04132575392458829</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03468529209406325</v>
+        <v>0.03541641087934328</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04798256014872313</v>
+        <v>0.04911295531683701</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>343</v>
@@ -9868,19 +9868,19 @@
         <v>227985</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>203571</v>
+        <v>202521</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>253793</v>
+        <v>253516</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06186860989567378</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05524345592605875</v>
+        <v>0.05495834813012641</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06887210992005968</v>
+        <v>0.06879696250142942</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>495</v>
@@ -9889,19 +9889,19 @@
         <v>371389</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>336820</v>
+        <v>339823</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>409213</v>
+        <v>407906</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.05190567602248783</v>
+        <v>0.05190567602248784</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0470743819984426</v>
+        <v>0.04749405496477026</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05719203758329509</v>
+        <v>0.05700940935231146</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>74675</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>59576</v>
+        <v>58926</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>93791</v>
+        <v>93260</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02151960590764674</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01716852263357989</v>
+        <v>0.0169811261474173</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02702847364319462</v>
+        <v>0.02687535289788961</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>147</v>
@@ -9939,19 +9939,19 @@
         <v>100301</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>84052</v>
+        <v>84912</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>120327</v>
+        <v>118975</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02721893959797871</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02280941675391717</v>
+        <v>0.02304263661290394</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03265330944645242</v>
+        <v>0.03228645347572537</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>228</v>
@@ -9960,19 +9960,19 @@
         <v>174976</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>150856</v>
+        <v>154221</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>198381</v>
+        <v>199895</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02445486021398652</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02108381933370635</v>
+        <v>0.0215540692170127</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02772593848615129</v>
+        <v>0.02793752461532979</v>
       </c>
     </row>
     <row r="33">
